--- a/src/test/resources/testData/SkyTravellerUAE1.xlsx
+++ b/src/test/resources/testData/SkyTravellerUAE1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\IweenSkyTravellerUAE-main (5)\IweenSkyTravellerUAE-main\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F111EF-E72A-4CAE-9074-054F7AC4B8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED4331-298F-4667-A258-12029D4D60AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{A98AB1F9-1342-4144-ABEF-0B9BC1646353}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A98AB1F9-1342-4144-ABEF-0B9BC1646353}"/>
   </bookViews>
   <sheets>
     <sheet name="TCCP_1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="43">
   <si>
     <t>Depart From</t>
   </si>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6CF5F6-598B-4A3C-BFD3-F74BC78A5583}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="I9" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,6 +729,9 @@
       <c r="L4" t="s">
         <v>14</v>
       </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -767,6 +770,9 @@
       <c r="L5" t="s">
         <v>14</v>
       </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -805,6 +811,9 @@
       <c r="L6" t="s">
         <v>14</v>
       </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -842,6 +851,9 @@
       </c>
       <c r="L7" t="s">
         <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -881,6 +893,9 @@
       <c r="L8" t="s">
         <v>14</v>
       </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -919,6 +934,9 @@
       <c r="L9" t="s">
         <v>14</v>
       </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -957,6 +975,9 @@
       <c r="L10" t="s">
         <v>14</v>
       </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -995,6 +1016,9 @@
       <c r="L11" t="s">
         <v>14</v>
       </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1033,6 +1057,9 @@
       <c r="L12" t="s">
         <v>14</v>
       </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1071,6 +1098,9 @@
       <c r="L13" t="s">
         <v>14</v>
       </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1109,6 +1139,9 @@
       <c r="L14" t="s">
         <v>14</v>
       </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1147,6 +1180,9 @@
       <c r="L15" t="s">
         <v>14</v>
       </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1185,8 +1221,11 @@
       <c r="L16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1223,8 +1262,11 @@
       <c r="L17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1261,8 +1303,11 @@
       <c r="L18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1299,8 +1344,11 @@
       <c r="L19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1337,8 +1385,11 @@
       <c r="L20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1375,8 +1426,11 @@
       <c r="L21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1413,8 +1467,11 @@
       <c r="L22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="L23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="L24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1527,8 +1590,11 @@
       <c r="L25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1565,8 +1631,11 @@
       <c r="L26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1603,8 +1672,11 @@
       <c r="L27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1641,8 +1713,11 @@
       <c r="L28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1679,8 +1754,11 @@
       <c r="L29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1717,8 +1795,11 @@
       <c r="L30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
@@ -4106,7 +4187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0080D6-171F-4DCA-BCDF-55890B0334E0}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
